--- a/REyeker-DataAnalyses-Python/data/aoi_categorized/AOI_TR_IntegerBinary.xlsx
+++ b/REyeker-DataAnalyses-Python/data/aoi_categorized/AOI_TR_IntegerBinary.xlsx
@@ -14,7 +14,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1</t>
+  </si>
   <si>
     <t>startHeight</t>
   </si>
@@ -37,10 +52,7 @@
     <t>Recursive definition</t>
   </si>
   <si>
-    <t>Recusrive Condition</t>
-  </si>
-  <si>
-    <t>Recusrive Step</t>
+    <t>Recursive Step</t>
   </si>
   <si>
     <t>Return Result</t>
@@ -401,180 +413,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>33</v>
       </c>
-      <c r="B2">
+      <c r="H2">
         <v>60</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>632</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>632</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>61</v>
+      </c>
+      <c r="H3">
+        <v>88</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>632</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>89</v>
+      </c>
+      <c r="H4">
+        <v>116</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>632</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>117</v>
+      </c>
+      <c r="H5">
+        <v>144</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>632</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>173</v>
+      </c>
+      <c r="H6">
+        <v>200</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>632</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>61</v>
-      </c>
-      <c r="B3">
-        <v>88</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>632</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B7">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>89</v>
-      </c>
-      <c r="B4">
-        <v>116</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>632</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C7">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>117</v>
-      </c>
-      <c r="B5">
-        <v>144</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>632</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D7">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>173</v>
-      </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>632</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>201</v>
+      </c>
+      <c r="H7">
+        <v>228</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>632</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>201</v>
-      </c>
-      <c r="B7">
-        <v>228</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>632</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>229</v>
+      </c>
+      <c r="H8">
+        <v>256</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>632</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>229</v>
-      </c>
-      <c r="B8">
-        <v>256</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>632</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B9">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
         <v>257</v>
       </c>
-      <c r="B9">
+      <c r="H9">
         <v>284</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>632</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>632</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
         <v>285</v>
       </c>
-      <c r="B10">
+      <c r="H10">
         <v>312</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>632</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>632</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/REyeker-DataAnalyses-Python/data/aoi_categorized/AOI_TR_IntegerBinary.xlsx
+++ b/REyeker-DataAnalyses-Python/data/aoi_categorized/AOI_TR_IntegerBinary.xlsx
@@ -14,22 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1.1</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1.1.1</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1.1.1.1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>startHeight</t>
   </si>
@@ -413,357 +398,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>632</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>61</v>
+      </c>
+      <c r="B3">
+        <v>88</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>632</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>89</v>
+      </c>
+      <c r="B4">
+        <v>116</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>632</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>117</v>
+      </c>
+      <c r="B5">
+        <v>144</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>632</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>173</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>632</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>201</v>
+      </c>
+      <c r="B7">
+        <v>228</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>632</v>
+      </c>
+      <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>229</v>
+      </c>
+      <c r="B8">
+        <v>256</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>632</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>257</v>
+      </c>
+      <c r="B9">
+        <v>284</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>632</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>285</v>
+      </c>
+      <c r="B10">
+        <v>312</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>632</v>
+      </c>
+      <c r="E10" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>33</v>
-      </c>
-      <c r="H2">
-        <v>60</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>632</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>61</v>
-      </c>
-      <c r="H3">
-        <v>88</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>632</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>89</v>
-      </c>
-      <c r="H4">
-        <v>116</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>632</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>117</v>
-      </c>
-      <c r="H5">
-        <v>144</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>632</v>
-      </c>
-      <c r="K5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>173</v>
-      </c>
-      <c r="H6">
-        <v>200</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>632</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>201</v>
-      </c>
-      <c r="H7">
-        <v>228</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>632</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>229</v>
-      </c>
-      <c r="H8">
-        <v>256</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>632</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>257</v>
-      </c>
-      <c r="H9">
-        <v>284</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>632</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>285</v>
-      </c>
-      <c r="H10">
-        <v>312</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>632</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
